--- a/results/mp/tinybert/corona/confidence/126/stop-words-masking-0.1/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/126/stop-words-masking-0.1/avg_0.004_scores.xlsx
@@ -70,6 +70,9 @@
     <t>negative</t>
   </si>
   <si>
+    <t>interesting</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
@@ -79,28 +82,31 @@
     <t>love</t>
   </si>
   <si>
-    <t>interesting</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
     <t>thanks</t>
   </si>
   <si>
+    <t>thank</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
     <t>positive</t>
   </si>
   <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
     <t>free</t>
   </si>
   <si>
-    <t>safe</t>
+    <t>better</t>
   </si>
   <si>
     <t>safety</t>
@@ -109,40 +115,37 @@
     <t>support</t>
   </si>
   <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
     <t>good</t>
   </si>
   <si>
+    <t>confidence</t>
+  </si>
+  <si>
     <t>well</t>
   </si>
   <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
     <t>hand</t>
   </si>
   <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
     <t>important</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
+    <t>help</t>
+  </si>
+  <si>
     <t>care</t>
   </si>
   <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>help</t>
+    <t>hope</t>
   </si>
   <si>
     <t>please</t>
@@ -151,28 +154,25 @@
     <t>protect</t>
   </si>
   <si>
-    <t>hope</t>
-  </si>
-  <si>
     <t>sure</t>
   </si>
   <si>
     <t>increase</t>
   </si>
   <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
     <t>online</t>
   </si>
   <si>
-    <t>shopping</t>
-  </si>
-  <si>
     <t>store</t>
   </si>
   <si>
     <t>grocery</t>
-  </si>
-  <si>
-    <t>consumer</t>
   </si>
   <si>
     <t>supermarket</t>
@@ -632,13 +632,13 @@
         <v>18</v>
       </c>
       <c r="K3">
-        <v>0.9661016949152542</v>
+        <v>0.9696969696969697</v>
       </c>
       <c r="L3">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="M3">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -650,7 +650,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -658,13 +658,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7777777777777778</v>
+        <v>0.75</v>
       </c>
       <c r="C4">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D4">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -676,19 +676,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K4">
-        <v>0.9615384615384616</v>
+        <v>0.9661016949152542</v>
       </c>
       <c r="L4">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="M4">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -700,7 +700,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -708,13 +708,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7054794520547946</v>
+        <v>0.6986301369863014</v>
       </c>
       <c r="C5">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D5">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -726,19 +726,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>20</v>
       </c>
       <c r="K5">
-        <v>0.9565217391304348</v>
+        <v>0.9615384615384616</v>
       </c>
       <c r="L5">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="M5">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -750,7 +750,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -758,13 +758,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.36</v>
+        <v>0.3866666666666667</v>
       </c>
       <c r="C6">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D6">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -776,19 +776,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K6">
-        <v>0.9393939393939394</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="L6">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="M6">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -808,13 +808,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.3422818791946309</v>
+        <v>0.3624161073825503</v>
       </c>
       <c r="C7">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D7">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -826,19 +826,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>22</v>
       </c>
       <c r="K7">
-        <v>0.8839285714285714</v>
+        <v>0.875</v>
       </c>
       <c r="L7">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M7">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -850,7 +850,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -858,13 +858,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.3391472868217054</v>
+        <v>0.3275193798449613</v>
       </c>
       <c r="C8">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="D8">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -876,19 +876,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>23</v>
       </c>
       <c r="K8">
-        <v>0.8414634146341463</v>
+        <v>0.8536585365853658</v>
       </c>
       <c r="L8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -932,13 +932,13 @@
         <v>24</v>
       </c>
       <c r="K9">
-        <v>0.8333333333333334</v>
+        <v>0.84375</v>
       </c>
       <c r="L9">
-        <v>30</v>
+        <v>108</v>
       </c>
       <c r="M9">
-        <v>30</v>
+        <v>108</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -950,7 +950,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -958,13 +958,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.1706349206349206</v>
+        <v>0.1785714285714286</v>
       </c>
       <c r="C10">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D10">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -976,19 +976,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>25</v>
       </c>
       <c r="K10">
-        <v>0.8203125</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L10">
-        <v>105</v>
+        <v>30</v>
       </c>
       <c r="M10">
-        <v>105</v>
+        <v>30</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1000,7 +1000,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>23</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1008,13 +1008,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.1260053619302949</v>
+        <v>0.09919571045576407</v>
       </c>
       <c r="C11">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="D11">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1026,19 +1026,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>326</v>
+        <v>336</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>26</v>
       </c>
       <c r="K11">
-        <v>0.8103448275862069</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="L11">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M11">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1050,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1058,13 +1058,13 @@
         <v>27</v>
       </c>
       <c r="K12">
-        <v>0.8</v>
+        <v>0.795774647887324</v>
       </c>
       <c r="L12">
-        <v>96</v>
+        <v>113</v>
       </c>
       <c r="M12">
-        <v>96</v>
+        <v>113</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1076,7 +1076,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1084,13 +1084,13 @@
         <v>28</v>
       </c>
       <c r="K13">
-        <v>0.795774647887324</v>
+        <v>0.7872340425531915</v>
       </c>
       <c r="L13">
-        <v>113</v>
+        <v>37</v>
       </c>
       <c r="M13">
-        <v>113</v>
+        <v>37</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1102,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>29</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1110,13 +1110,13 @@
         <v>29</v>
       </c>
       <c r="K14">
-        <v>0.7843137254901961</v>
+        <v>0.7833333333333333</v>
       </c>
       <c r="L14">
-        <v>40</v>
+        <v>94</v>
       </c>
       <c r="M14">
-        <v>40</v>
+        <v>94</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1128,7 +1128,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>11</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1136,13 +1136,13 @@
         <v>30</v>
       </c>
       <c r="K15">
-        <v>0.7735849056603774</v>
+        <v>0.7619047619047619</v>
       </c>
       <c r="L15">
-        <v>82</v>
+        <v>48</v>
       </c>
       <c r="M15">
-        <v>82</v>
+        <v>48</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1154,7 +1154,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1162,13 +1162,13 @@
         <v>31</v>
       </c>
       <c r="K16">
-        <v>0.7659574468085106</v>
+        <v>0.7450980392156863</v>
       </c>
       <c r="L16">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="M16">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1188,13 +1188,13 @@
         <v>32</v>
       </c>
       <c r="K17">
-        <v>0.7619047619047619</v>
+        <v>0.7358490566037735</v>
       </c>
       <c r="L17">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="M17">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>15</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1240,13 +1240,13 @@
         <v>34</v>
       </c>
       <c r="K19">
-        <v>0.6702127659574468</v>
+        <v>0.6944444444444444</v>
       </c>
       <c r="L19">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="M19">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1258,7 +1258,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>31</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1266,13 +1266,13 @@
         <v>35</v>
       </c>
       <c r="K20">
-        <v>0.6344647519582245</v>
+        <v>0.6808510638297872</v>
       </c>
       <c r="L20">
-        <v>243</v>
+        <v>64</v>
       </c>
       <c r="M20">
-        <v>243</v>
+        <v>64</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1284,7 +1284,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>140</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1292,13 +1292,13 @@
         <v>36</v>
       </c>
       <c r="K21">
-        <v>0.625</v>
+        <v>0.64</v>
       </c>
       <c r="L21">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M21">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1318,13 +1318,13 @@
         <v>37</v>
       </c>
       <c r="K22">
-        <v>0.6046511627906976</v>
+        <v>0.625</v>
       </c>
       <c r="L22">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M22">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1344,13 +1344,13 @@
         <v>38</v>
       </c>
       <c r="K23">
-        <v>0.6</v>
+        <v>0.6240208877284595</v>
       </c>
       <c r="L23">
-        <v>27</v>
+        <v>239</v>
       </c>
       <c r="M23">
-        <v>27</v>
+        <v>239</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1362,7 +1362,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>18</v>
+        <v>144</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1370,13 +1370,13 @@
         <v>39</v>
       </c>
       <c r="K24">
-        <v>0.5705882352941176</v>
+        <v>0.6222222222222222</v>
       </c>
       <c r="L24">
-        <v>194</v>
+        <v>28</v>
       </c>
       <c r="M24">
-        <v>194</v>
+        <v>28</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>146</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1396,13 +1396,13 @@
         <v>40</v>
       </c>
       <c r="K25">
-        <v>0.5617977528089888</v>
+        <v>0.5735294117647058</v>
       </c>
       <c r="L25">
-        <v>50</v>
+        <v>195</v>
       </c>
       <c r="M25">
-        <v>50</v>
+        <v>195</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1414,7 +1414,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>39</v>
+        <v>145</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1422,13 +1422,13 @@
         <v>41</v>
       </c>
       <c r="K26">
-        <v>0.5600000000000001</v>
+        <v>0.5661016949152542</v>
       </c>
       <c r="L26">
-        <v>28</v>
+        <v>167</v>
       </c>
       <c r="M26">
-        <v>28</v>
+        <v>167</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1440,7 +1440,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>22</v>
+        <v>128</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1448,13 +1448,13 @@
         <v>42</v>
       </c>
       <c r="K27">
-        <v>0.535593220338983</v>
+        <v>0.5393258426966292</v>
       </c>
       <c r="L27">
-        <v>158</v>
+        <v>48</v>
       </c>
       <c r="M27">
-        <v>158</v>
+        <v>48</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1466,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>137</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1474,13 +1474,13 @@
         <v>43</v>
       </c>
       <c r="K28">
-        <v>0.4937238493723849</v>
+        <v>0.4923076923076923</v>
       </c>
       <c r="L28">
-        <v>118</v>
+        <v>32</v>
       </c>
       <c r="M28">
-        <v>118</v>
+        <v>32</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1492,7 +1492,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>121</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1500,13 +1500,13 @@
         <v>44</v>
       </c>
       <c r="K29">
-        <v>0.4657534246575342</v>
+        <v>0.4560669456066946</v>
       </c>
       <c r="L29">
-        <v>34</v>
+        <v>109</v>
       </c>
       <c r="M29">
-        <v>34</v>
+        <v>109</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1518,7 +1518,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>39</v>
+        <v>130</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1526,13 +1526,13 @@
         <v>45</v>
       </c>
       <c r="K30">
-        <v>0.4461538461538462</v>
+        <v>0.4383561643835616</v>
       </c>
       <c r="L30">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="M30">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1544,7 +1544,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1552,13 +1552,13 @@
         <v>46</v>
       </c>
       <c r="K31">
-        <v>0.421875</v>
+        <v>0.4375</v>
       </c>
       <c r="L31">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M31">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1570,7 +1570,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -1578,13 +1578,13 @@
         <v>47</v>
       </c>
       <c r="K32">
-        <v>0.4102564102564102</v>
+        <v>0.358974358974359</v>
       </c>
       <c r="L32">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="M32">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1596,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1604,13 +1604,13 @@
         <v>48</v>
       </c>
       <c r="K33">
-        <v>0.1004784688995215</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="L33">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="M33">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1622,7 +1622,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>376</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1630,13 +1630,13 @@
         <v>49</v>
       </c>
       <c r="K34">
-        <v>0.09134615384615384</v>
+        <v>0.1033653846153846</v>
       </c>
       <c r="L34">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="M34">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1648,7 +1648,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>378</v>
+        <v>373</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -1656,13 +1656,13 @@
         <v>50</v>
       </c>
       <c r="K35">
-        <v>0.06599552572706935</v>
+        <v>0.1028708133971292</v>
       </c>
       <c r="L35">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="M35">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1674,7 +1674,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>835</v>
+        <v>375</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -1682,25 +1682,25 @@
         <v>51</v>
       </c>
       <c r="K36">
-        <v>0.04777777777777778</v>
+        <v>0.05257270693512305</v>
       </c>
       <c r="L36">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="M36">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="N36">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O36">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q36">
-        <v>857</v>
+        <v>847</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -1708,25 +1708,25 @@
         <v>52</v>
       </c>
       <c r="K37">
-        <v>0.04006163328197226</v>
+        <v>0.03995560488346282</v>
       </c>
       <c r="L37">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="M37">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="N37">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O37">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q37">
-        <v>623</v>
+        <v>865</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -1760,25 +1760,25 @@
         <v>54</v>
       </c>
       <c r="K39">
-        <v>0.02244039270687237</v>
+        <v>0.02616822429906542</v>
       </c>
       <c r="L39">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="M39">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="N39">
-        <v>0.92</v>
+        <v>0.95</v>
       </c>
       <c r="O39">
-        <v>0.07999999999999996</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P39" t="b">
         <v>1</v>
       </c>
       <c r="Q39">
-        <v>2091</v>
+        <v>2084</v>
       </c>
     </row>
     <row r="40" spans="10:17">
@@ -1786,13 +1786,13 @@
         <v>55</v>
       </c>
       <c r="K40">
-        <v>0.01547388781431335</v>
+        <v>0.01579626047711154</v>
       </c>
       <c r="L40">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M40">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N40">
         <v>0.91</v>
@@ -1804,7 +1804,7 @@
         <v>1</v>
       </c>
       <c r="Q40">
-        <v>3054</v>
+        <v>3053</v>
       </c>
     </row>
   </sheetData>
